--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1615.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1615.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162441862355047</v>
+        <v>0.6892867684364319</v>
       </c>
       <c r="B1">
-        <v>2.710336483333661</v>
+        <v>2.170462369918823</v>
       </c>
       <c r="C1">
-        <v>4.645740356310931</v>
+        <v>5.053410530090332</v>
       </c>
       <c r="D1">
-        <v>2.218986751311086</v>
+        <v>3.018070220947266</v>
       </c>
       <c r="E1">
-        <v>1.055701359803619</v>
+        <v>0.7366823554039001</v>
       </c>
     </row>
   </sheetData>
